--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE55D43-B44E-4D15-BDF0-08486B237E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6333C833-8922-4564-A11F-945BC61EF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -434,24 +434,12 @@
     <t>01. table = 0</t>
   </si>
   <si>
-    <t>02. table = 3</t>
-  </si>
-  <si>
-    <t>03. table = 5</t>
-  </si>
-  <si>
-    <t>04. table = 6</t>
-  </si>
-  <si>
     <t>05.table = 8</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>table is int,1&lt;table&lt;=no_tables; no_tables=8</t>
-  </si>
-  <si>
     <t>payment succesful</t>
   </si>
   <si>
@@ -491,42 +479,18 @@
     <t>07.  amount = 11.4</t>
   </si>
   <si>
-    <t>08.  amount = 70.99</t>
-  </si>
-  <si>
     <t>amount is double, amount&gt;0</t>
   </si>
   <si>
-    <t>09.  amount = -56</t>
-  </si>
-  <si>
     <t>1,7</t>
   </si>
   <si>
-    <t>BVA1</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>BVA2</t>
-  </si>
-  <si>
     <t>5,7</t>
   </si>
   <si>
-    <t>BVA3</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>BVA4</t>
-  </si>
-  <si>
     <t xml:space="preserve">payment successful </t>
   </si>
   <si>
@@ -537,6 +501,27 @@
   </si>
   <si>
     <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>table is int,1&lt;=table&lt;=no_tables; no_tables=8</t>
+  </si>
+  <si>
+    <t>02. table = 1</t>
+  </si>
+  <si>
+    <t>03. table = 2</t>
+  </si>
+  <si>
+    <t>04. table = 7</t>
+  </si>
+  <si>
+    <t>10.table = 9</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>3,7</t>
   </si>
 </sst>
 </file>
@@ -1342,182 +1327,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1534,47 +1555,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,20 +1870,20 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1911,14 +1896,14 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" s="58" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1927,21 +1912,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -1949,19 +1934,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +1954,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1977,7 +1962,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +1970,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1993,29 +1978,29 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2030,7 +2015,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2045,7 +2030,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -2061,7 +2046,7 @@
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="47"/>
     </row>
   </sheetData>
@@ -2082,28 +2067,28 @@
   </sheetPr>
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2111,38 +2096,38 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="G5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
@@ -2155,39 +2140,39 @@
       <c r="E6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="68" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="83"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>80</v>
+      <c r="C7" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="21" t="s">
         <v>63</v>
       </c>
@@ -2199,21 +2184,21 @@
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="64" t="s">
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="65"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="80"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="50"/>
@@ -2227,20 +2212,20 @@
       <c r="P8" s="49"/>
       <c r="Q8" s="29"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
@@ -2253,29 +2238,29 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="60" t="s">
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="61"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="78"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>83</v>
+      <c r="C10" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="21">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2">
         <v>6</v>
@@ -2288,27 +2273,27 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="60" t="s">
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="61"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="78"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11" s="34">
         <v>3</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I11" s="13">
         <v>9</v>
@@ -2321,25 +2306,25 @@
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="72" t="s">
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="73"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="72"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="34">
         <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I12" s="13">
         <v>4</v>
@@ -2352,18 +2337,18 @@
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="72" t="s">
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="73"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="72"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="12">
@@ -2377,14 +2362,14 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="12">
@@ -2396,16 +2381,16 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="17">
@@ -2417,16 +2402,16 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="63"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4"/>
@@ -2442,16 +2427,16 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="17"/>
@@ -2461,16 +2446,16 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4"/>
@@ -2482,16 +2467,16 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="63"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="17"/>
@@ -2501,16 +2486,16 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4"/>
@@ -2522,28 +2507,53 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="63"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C7:C9"/>
@@ -2560,31 +2570,6 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2597,31 +2582,31 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2629,39 +2614,39 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="99" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="93" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="93"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2672,45 +2657,45 @@
         <v>25</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="86" t="s">
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="88"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
+      <c r="R6" s="95"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>77</v>
+      <c r="C7" s="87" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="21" t="s">
         <v>63</v>
       </c>
@@ -2723,34 +2708,32 @@
       <c r="N7" s="33"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="65"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
+      <c r="R7" s="80"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M8" s="16">
         <v>11.4</v>
@@ -2758,69 +2741,65 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="71"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="86"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K9" s="31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="32">
-        <v>70.989999999999995</v>
+        <v>11.4</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
-      <c r="Q9" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="91"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
+      <c r="Q9" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="99"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="86"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G10" s="21">
         <v>3</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K10" s="32">
         <v>8</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M10" s="32">
         <v>11.4</v>
@@ -2828,50 +2807,50 @@
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="90"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="94"/>
-      <c r="C11" s="96"/>
+      <c r="Q10" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="97"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" s="21">
         <v>4</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K11" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M11" s="16">
-        <v>-56</v>
+        <v>11.4</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="R11" s="71"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="2"/>
+      <c r="R11" s="74"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="61"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G12" s="21">
         <v>5</v>
       </c>
@@ -2884,28 +2863,28 @@
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-    </row>
-    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75">
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="60">
         <v>2</v>
       </c>
-      <c r="C13" s="95" t="s">
-        <v>92</v>
+      <c r="C13" s="87" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G13" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
-      <c r="C14" s="96"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="86"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G14" s="21">
         <v>7</v>
@@ -2919,15 +2898,13 @@
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="86"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="2"/>
       <c r="G15" s="21">
         <v>8</v>
       </c>
@@ -2940,15 +2917,13 @@
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="16" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="97"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="86"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="16"/>
       <c r="G16" s="21">
         <v>9</v>
       </c>
@@ -2961,12 +2936,12 @@
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="94"/>
-      <c r="C17" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="86"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="2"/>
       <c r="G17" s="21">
         <v>10</v>
@@ -2975,9 +2950,9 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="97"/>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="61"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="2"/>
       <c r="G18" s="21">
         <v>11</v>
@@ -2991,14 +2966,14 @@
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="75">
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="60">
         <v>3</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="2"/>
       <c r="G19" s="21">
         <v>12</v>
@@ -3012,12 +2987,12 @@
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="94"/>
-      <c r="C20" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="86"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="2"/>
       <c r="G20" s="21">
         <v>13</v>
@@ -3031,12 +3006,12 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="94"/>
-      <c r="C21" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="86"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="2"/>
       <c r="G21" s="21">
         <v>14</v>
@@ -3050,12 +3025,12 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
-      <c r="C22" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="86"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="2"/>
       <c r="G22" s="21">
         <v>15</v>
@@ -3069,12 +3044,12 @@
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
-      <c r="C23" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="2"/>
       <c r="G23" s="21">
         <v>16</v>
@@ -3088,12 +3063,12 @@
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
-      <c r="C24" s="97"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="61"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="2"/>
       <c r="G24" s="21">
         <v>17</v>
@@ -3107,14 +3082,14 @@
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="75">
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="60">
         <v>4</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="87" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3132,31 +3107,31 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="90"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="94"/>
-      <c r="C26" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
-      <c r="C27" s="96"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="92"/>
       <c r="J28" s="92"/>
       <c r="K28" s="92"/>
@@ -3164,28 +3139,50 @@
       <c r="M28" s="92"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
-      <c r="C29" s="96"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="97"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3202,28 +3199,6 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3238,23 +3213,23 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3262,55 +3237,55 @@
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="136" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="68"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="131"/>
+      <c r="N4" s="83"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="117"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="21" t="s">
         <v>63</v>
       </c>
@@ -3322,8 +3297,8 @@
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="24" t="s">
         <v>20</v>
       </c>
@@ -3331,11 +3306,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="115" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -3355,23 +3330,23 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>23</v>
@@ -3387,21 +3362,21 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="112"/>
       <c r="M7" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <f>B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="29" t="s">
         <v>41</v>
       </c>
@@ -3428,14 +3403,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <f t="shared" ref="B9:B13" si="0">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>23</v>
@@ -3460,31 +3435,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F10" s="20">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="16">
         <v>11.4</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="53" t="s">
         <v>69</v>
       </c>
@@ -3492,17 +3467,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F11" s="31">
         <v>5</v>
@@ -3515,21 +3490,21 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="130"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="29" t="s">
         <v>23</v>
       </c>
@@ -3540,28 +3515,28 @@
         <v>8</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H12" s="32">
         <v>11.4</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
       <c r="M12" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
@@ -3572,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H13" s="16">
         <v>-56</v>
@@ -3583,10 +3558,10 @@
       <c r="J13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="123" t="s">
+      <c r="K13" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="124"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="53" t="s">
         <v>69</v>
       </c>
@@ -3594,7 +3569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -3609,7 +3584,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
@@ -3621,100 +3596,100 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="102" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="103"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="102" t="s">
+      <c r="I17" s="129"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="103"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="105"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="116" t="s">
+      <c r="N17" s="129"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="128"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="119"/>
-      <c r="J18" s="101" t="s">
+      <c r="I18" s="131"/>
+      <c r="J18" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="101" t="s">
+      <c r="N18" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="101" t="s">
+      <c r="O18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="100" t="s">
+      <c r="P18" s="125" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="100"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>39</v>
       </c>
@@ -3729,10 +3704,10 @@
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="114">
+      <c r="H20" s="120">
         <v>0</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="2"/>
       <c r="K20" s="38"/>
       <c r="L20" s="39"/>
@@ -3741,24 +3716,17 @@
       <c r="O20" s="38"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3775,12 +3743,19 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3789,9 +3764,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3939,19 +3917,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3975,9 +3949,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>